--- a/génération/yw3.xlsx
+++ b/génération/yw3.xlsx
@@ -1698,11 +1698,11 @@
   </sheetPr>
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68:D138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
